--- a/biology/Médecine/Hystéroscopie/Hystéroscopie.xlsx
+++ b/biology/Médecine/Hystéroscopie/Hystéroscopie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyst%C3%A9roscopie</t>
+          <t>Hystéroscopie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hystéroscopie est un examen qui permet de visualiser directement l'intérieur de l'utérus à l'aide d'un hystéroscope. Ainsi on peut explorer le canal cervical, la cavité utérine et sa muqueuse, l'endomètre ; et l'origine des trompes utérines.
 Par défaut, le mot « hystéroscopie », sans autre précision, sous-entend l'hystéroscopie diagnostique.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyst%C3%A9roscopie</t>
+          <t>Hystéroscopie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L’hystéroscopie consiste à examiner l’intérieur de l’utérus (hystéro = utérus, et scopie = « regarder » : « regarder dans l’utérus »), en introduisant un instrument appelé hystéroscope (il existe deux sortes d'hystéroscopes : l'hystéroscope rigide, constitué d’une optique (sorte de caméra longiligne contenant des lentilles et des prismes optiques) et d'une chemise externe qui permet l'arrivée et le retour d'un flux de liquide (du sérum physiologique, le plus souvent) ; et l'hystéroscope souple, constitué d'une gaine souple et d'un système de fibres optiques).
 L’instrument est introduit par le col de l’utérus, il n’y a donc ni ouverture, ni cicatrice.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyst%C3%A9roscopie</t>
+          <t>Hystéroscopie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet examen est indiqué dans les cas suivants :
 Anomalies du cycle menstruel : règles trop longues et abondantes (ménorragies) ; saignements anormaux entre les règles (métrorragies).
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyst%C3%A9roscopie</t>
+          <t>Hystéroscopie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'hystéroscopie est un examen courant. Les risques liés à cet examen sont faibles, et dans la majorité des cas les suites sont indolores et simples.
 Les complications rapportées dans la littérature médicale sont les suivantes :
